--- a/ResultadoEleicoesDistritos/SETÚBAL_PALMELA.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_PALMELA.xlsx
@@ -597,64 +597,64 @@
         <v>17526</v>
       </c>
       <c r="H2" t="n">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="I2" t="n">
-        <v>1824</v>
+        <v>1701</v>
       </c>
       <c r="J2" t="n">
-        <v>7312</v>
+        <v>7111</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L2" t="n">
-        <v>2022</v>
+        <v>1956</v>
       </c>
       <c r="M2" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="N2" t="n">
-        <v>1297</v>
+        <v>1254</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="R2" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S2" t="n">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="T2" t="n">
-        <v>1268</v>
+        <v>1214</v>
       </c>
       <c r="U2" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="V2" t="n">
-        <v>11014</v>
+        <v>11171</v>
       </c>
       <c r="W2" t="n">
         <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>11179</v>
+        <v>11499</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
